--- a/src/test/resources/Exceldatatest1.xlsx
+++ b/src/test/resources/Exceldatatest1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7200" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MedicalHistorySheet1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>docname</t>
   </si>
   <si>
-    <t>ram</t>
+    <t>ram12</t>
   </si>
   <si>
     <r>
@@ -127,7 +127,7 @@
     </r>
   </si>
   <si>
-    <t>ponfh@gmail.com</t>
+    <t>ponfhg@gmail.com</t>
   </si>
   <si>
     <r>
@@ -1586,7 +1586,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="ponfh@gmail.com" tooltip="mailto:ponfh@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId1" display="ponfhg@gmail.com" tooltip="mailto:ponfhg@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/Exceldatatest1.xlsx
+++ b/src/test/resources/Exceldatatest1.xlsx
@@ -127,7 +127,7 @@
     </r>
   </si>
   <si>
-    <t>ponfhg@gmail.com</t>
+    <t>kojiuh@gmail.com</t>
   </si>
   <si>
     <r>
@@ -1586,7 +1586,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="ponfhg@gmail.com" tooltip="mailto:ponfhg@gmail.com"/>
+    <hyperlink ref="B6" r:id="rId1" display="kojiuh@gmail.com" tooltip="mailto:kojiuh@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/test/resources/Exceldatatest1.xlsx
+++ b/src/test/resources/Exceldatatest1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>bp</t>
   </si>
@@ -116,29 +116,7 @@
     <t>4536367469</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>docemail</t>
-    </r>
-  </si>
-  <si>
-    <t>kojiuh@gmail.com</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>npass</t>
-    </r>
+    <t>npass</t>
   </si>
   <si>
     <t>12345678</t>
@@ -1512,13 +1490,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
@@ -1564,7 +1542,7 @@
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1573,21 +1551,10 @@
         <v>22</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="kojiuh@gmail.com" tooltip="mailto:kojiuh@gmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1606,10 +1573,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1631,18 +1598,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1664,17 +1631,17 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1700,26 +1667,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1741,26 +1708,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
